--- a/documents/TableSchema.xlsx
+++ b/documents/TableSchema.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\board\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB562AA-E321-4CB7-8BE1-DF16413151A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AB2AC2-42C4-4363-9278-A60B6EB96780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7845" activeTab="1" xr2:uid="{A52EC077-991D-4703-A4FB-D5201DDEC5A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7845" xr2:uid="{A52EC077-991D-4703-A4FB-D5201DDEC5A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
     <sheet name="TB_USER" sheetId="1" r:id="rId2"/>
+    <sheet name="TB_ROLE" sheetId="3" r:id="rId3"/>
+    <sheet name="TB_USER_ROLE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +217,82 @@
   </si>
   <si>
     <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_USER_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER, ROLE 관계 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_USER_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE 정보 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자, ROLE 관계 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +339,15 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -354,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,6 +457,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -379,14 +475,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -703,32 +793,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DF31D-D7A3-44D8-862E-D8CD1041EC5C}">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -744,12 +834,42 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" location="TB_USER!A1" display="TB_USER" xr:uid="{6F10ED07-39EC-4558-B713-289BE27810B8}"/>
+    <hyperlink ref="C4" location="TB_ROLE!A1" display="TB_ROLE" xr:uid="{7B228F08-B532-4CF9-85F0-77F5C0BF0AC5}"/>
+    <hyperlink ref="C5" location="TB_USER_ROLE!A1" display="TB_USER_ROLE" xr:uid="{7F00831E-4992-4588-9D2B-86DDDF38248A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -759,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915F0EFD-58CE-4F1E-A2C0-A49B0ED59072}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -778,43 +898,43 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -826,10 +946,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -841,13 +961,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
@@ -860,10 +980,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
@@ -876,10 +996,10 @@
         <v>23</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
@@ -892,8 +1012,8 @@
         <v>24</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
@@ -906,8 +1026,8 @@
         <v>22</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
@@ -920,8 +1040,8 @@
         <v>25</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
@@ -934,8 +1054,8 @@
         <v>25</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
@@ -948,8 +1068,8 @@
         <v>26</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
@@ -962,8 +1082,8 @@
         <v>23</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
@@ -976,10 +1096,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="2" t="s">
         <v>40</v>
       </c>
@@ -992,10 +1112,10 @@
         <v>25</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1008,8 +1128,8 @@
         <v>21</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1022,8 +1142,8 @@
         <v>25</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1037,4 +1157,280 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5893214-969E-4DF3-94AC-F5E79CFF4FA6}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F85FFEB-4023-4A9C-9BEF-AA237D29F8D7}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>